--- a/REGULAR/GSO/ANGCAYA, ANA B..xlsx
+++ b/REGULAR/GSO/ANGCAYA, ANA B..xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="379">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1167,6 +1167,9 @@
   </si>
   <si>
     <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/18-20/2023</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2204,7 @@
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="5040" topLeftCell="A558" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K569" sqref="K569"/>
+      <selection pane="bottomLeft" activeCell="G573" sqref="G573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,7 +2363,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>36.087999999999838</v>
+        <v>35.587999999999838</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2370,7 +2373,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>145.625</v>
+        <v>148.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14570,13 +14573,15 @@
         <v>45200</v>
       </c>
       <c r="B570" s="20"/>
-      <c r="C570" s="13"/>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39"/>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
@@ -14587,19 +14592,27 @@
       <c r="A571" s="40">
         <v>45231</v>
       </c>
-      <c r="B571" s="20"/>
-      <c r="C571" s="13"/>
-      <c r="D571" s="39"/>
+      <c r="B571" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D571" s="39">
+        <v>3</v>
+      </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G571" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="20"/>
+      <c r="K571" s="20" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
